--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.3381963518799207</v>
+        <v>9.3381963809133719</v>
       </c>
       <c r="C2">
-        <v>14.990279982682791</v>
+        <v>14.990279955092589</v>
       </c>
       <c r="D2">
-        <v>27.308358765736131</v>
+        <v>27.308358682440705</v>
       </c>
       <c r="E2">
-        <v>42.619735219833046</v>
+        <v>42.619735185106805</v>
       </c>
       <c r="F2">
-        <v>22.498809737169374</v>
+        <v>22.49880970377523</v>
       </c>
       <c r="G2">
-        <v>9.6711955899895319</v>
+        <v>9.671195574381505</v>
       </c>
       <c r="H2">
-        <v>17.259534790056108</v>
+        <v>17.259534748381462</v>
       </c>
       <c r="I2">
-        <v>21.19399667902913</v>
+        <v>21.193996676572553</v>
       </c>
       <c r="J2">
-        <v>24.495680839585397</v>
+        <v>24.495680769084775</v>
       </c>
       <c r="K2">
-        <v>8.3246488781497199</v>
+        <v>8.3246488628938486</v>
       </c>
       <c r="L2">
-        <v>5.6920038128332395</v>
+        <v>5.6920037790954909</v>
       </c>
       <c r="M2">
-        <v>-5.7030242702021221</v>
+        <v>-5.7030242650881382</v>
       </c>
       <c r="N2">
-        <v>23.205051427706913</v>
+        <v>23.205051407740811</v>
       </c>
       <c r="O2">
-        <v>20.544664447213044</v>
+        <v>20.544664373085713</v>
       </c>
       <c r="P2">
-        <v>31.510538094723405</v>
+        <v>31.510538121095749</v>
       </c>
       <c r="Q2">
-        <v>2.6499989904167234</v>
+        <v>2.6499989602865188</v>
       </c>
       <c r="R2">
-        <v>-6.5711422451309884</v>
+        <v>-6.5711422825917634</v>
       </c>
       <c r="S2">
-        <v>32.876565858299173</v>
+        <v>32.876565864289482</v>
       </c>
       <c r="T2">
-        <v>37.351982489602896</v>
+        <v>37.351982516399147</v>
       </c>
       <c r="U2">
-        <v>3.5306828923301476</v>
+        <v>3.5306828551629601</v>
       </c>
       <c r="V2">
-        <v>16.833107622020425</v>
+        <v>16.833107576989946</v>
       </c>
       <c r="W2">
-        <v>-9.9482905400230752</v>
+        <v>-9.9482906253736267</v>
       </c>
       <c r="X2">
-        <v>6.8083215476592311</v>
+        <v>6.8083215080733828</v>
       </c>
       <c r="Y2">
-        <v>36.750444411598323</v>
+        <v>36.750444359274184</v>
       </c>
       <c r="Z2">
-        <v>20.090222445006255</v>
+        <v>20.090222413044845</v>
       </c>
       <c r="AA2">
-        <v>41.930009179243697</v>
+        <v>41.93000890629974</v>
       </c>
       <c r="AB2">
-        <v>31.921598457864235</v>
+        <v>31.921598372857989</v>
       </c>
       <c r="AC2">
-        <v>7.633970757324783</v>
+        <v>7.6339706771510807</v>
       </c>
       <c r="AD2">
-        <v>53.871877658998038</v>
+        <v>53.87187754542505</v>
       </c>
       <c r="AE2">
-        <v>23.612574208503805</v>
+        <v>23.612574195138279</v>
       </c>
       <c r="AF2">
-        <v>27.086469662219727</v>
+        <v>27.086469600587193</v>
       </c>
       <c r="AG2">
-        <v>35.432562163534449</v>
+        <v>35.432561989162366</v>
       </c>
       <c r="AH2">
-        <v>31.242715443915642</v>
+        <v>31.242715382045212</v>
       </c>
       <c r="AI2">
-        <v>28.626961976596228</v>
+        <v>28.626961887576918</v>
       </c>
       <c r="AJ2">
-        <v>20.809717925566517</v>
+        <v>20.809717847466441</v>
       </c>
       <c r="AK2">
-        <v>28.992039149229171</v>
+        <v>28.992039103434951</v>
       </c>
       <c r="AL2">
-        <v>1.3091787267478681</v>
+        <v>1.3091786758891373</v>
       </c>
       <c r="AM2">
-        <v>30.204451646612977</v>
+        <v>30.2044515876383</v>
       </c>
       <c r="AN2">
-        <v>30.08635289178152</v>
+        <v>30.086352833314763</v>
       </c>
       <c r="AO2">
-        <v>52.615984659916215</v>
+        <v>52.615984524195447</v>
       </c>
       <c r="AP2">
-        <v>29.019682292760656</v>
+        <v>29.019682235588018</v>
       </c>
       <c r="AQ2">
-        <v>4.3488051727092305</v>
+        <v>4.3488050686296615</v>
       </c>
       <c r="AR2">
-        <v>38.964153076775624</v>
+        <v>38.964153065989152</v>
       </c>
       <c r="AS2">
-        <v>45.363929690994048</v>
+        <v>45.363929523540428</v>
       </c>
       <c r="AT2">
-        <v>17.300635178034124</v>
+        <v>17.300635131832674</v>
       </c>
       <c r="AU2">
-        <v>30.010152884511658</v>
+        <v>30.010152873016853</v>
       </c>
       <c r="AV2">
-        <v>26.393775755970033</v>
+        <v>26.39377552517476</v>
       </c>
       <c r="AW2">
-        <v>13.757287369238414</v>
+        <v>13.757287335009243</v>
       </c>
       <c r="AX2">
-        <v>38.257535201020708</v>
+        <v>38.257535123376336</v>
       </c>
       <c r="AY2">
-        <v>47.350192656084246</v>
+        <v>47.350192591922955</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.611998537660291</v>
+        <v>13.611998503666292</v>
       </c>
       <c r="C3">
-        <v>17.029013720008486</v>
+        <v>17.029013693383106</v>
       </c>
       <c r="D3">
-        <v>33.211305581558634</v>
+        <v>33.211305527017551</v>
       </c>
       <c r="E3">
-        <v>31.763702265122667</v>
+        <v>31.763702265668055</v>
       </c>
       <c r="F3">
-        <v>15.555523769002241</v>
+        <v>15.555523698334028</v>
       </c>
       <c r="G3">
-        <v>24.88608729552092</v>
+        <v>24.886087262296051</v>
       </c>
       <c r="H3">
-        <v>3.3209136404854949</v>
+        <v>3.3209136097035401</v>
       </c>
       <c r="I3">
-        <v>7.4438014560283676</v>
+        <v>7.4438014378130424</v>
       </c>
       <c r="J3">
-        <v>30.099605847267814</v>
+        <v>30.09960577276637</v>
       </c>
       <c r="K3">
-        <v>57.656845541703959</v>
+        <v>57.656845490474105</v>
       </c>
       <c r="L3">
-        <v>36.026052484666565</v>
+        <v>36.026052418847705</v>
       </c>
       <c r="M3">
-        <v>4.7698584046803019</v>
+        <v>4.769853113282295</v>
       </c>
       <c r="N3">
-        <v>18.257473358907813</v>
+        <v>18.257473325937074</v>
       </c>
       <c r="O3">
-        <v>-18.760759052943101</v>
+        <v>-18.760759082241936</v>
       </c>
       <c r="P3">
-        <v>31.628435662266551</v>
+        <v>31.628435601881279</v>
       </c>
       <c r="Q3">
-        <v>14.380520873798822</v>
+        <v>14.380520831675495</v>
       </c>
       <c r="R3">
-        <v>4.093764334352076</v>
+        <v>4.0937642453683907</v>
       </c>
       <c r="S3">
-        <v>28.777202121623603</v>
+        <v>28.777202116665141</v>
       </c>
       <c r="T3">
-        <v>34.906484326396594</v>
+        <v>34.906484286994889</v>
       </c>
       <c r="U3">
-        <v>19.200917583013073</v>
+        <v>19.200917564901996</v>
       </c>
       <c r="V3">
-        <v>24.001992761099277</v>
+        <v>24.001992733870296</v>
       </c>
       <c r="W3">
-        <v>-0.14292743509423261</v>
+        <v>-0.14292750746262131</v>
       </c>
       <c r="X3">
-        <v>-2.2515434910066863</v>
+        <v>-2.2515435234437984</v>
       </c>
       <c r="Y3">
-        <v>38.872029592916249</v>
+        <v>38.872029529452917</v>
       </c>
       <c r="Z3">
-        <v>22.566983661411317</v>
+        <v>22.566983633200689</v>
       </c>
       <c r="AA3">
-        <v>44.529134514958535</v>
+        <v>44.529134558007669</v>
       </c>
       <c r="AB3">
-        <v>35.997071157869648</v>
+        <v>35.997071091440972</v>
       </c>
       <c r="AC3">
-        <v>49.314760954602768</v>
+        <v>49.314760947265292</v>
       </c>
       <c r="AD3">
-        <v>50.328587669867176</v>
+        <v>50.328587556089722</v>
       </c>
       <c r="AE3">
-        <v>44.518701075416992</v>
+        <v>44.518701028922976</v>
       </c>
       <c r="AF3">
-        <v>27.884603976717521</v>
+        <v>27.884603917790905</v>
       </c>
       <c r="AG3">
-        <v>20.748904921400836</v>
+        <v>20.74890491386358</v>
       </c>
       <c r="AH3">
-        <v>13.494638019849855</v>
+        <v>13.494637926254166</v>
       </c>
       <c r="AI3">
-        <v>74.510830018675335</v>
+        <v>74.510829908556957</v>
       </c>
       <c r="AJ3">
-        <v>54.359314702592378</v>
+        <v>54.359314635070277</v>
       </c>
       <c r="AK3">
-        <v>39.160531518408284</v>
+        <v>39.16053147933966</v>
       </c>
       <c r="AL3">
-        <v>20.878551978709385</v>
+        <v>20.878551938507748</v>
       </c>
       <c r="AM3">
-        <v>25.278493521569679</v>
+        <v>25.278493384463228</v>
       </c>
       <c r="AN3">
-        <v>-8.6757565780679133</v>
+        <v>-8.6757566544518347</v>
       </c>
       <c r="AO3">
-        <v>50.986740392927075</v>
+        <v>50.986740328402668</v>
       </c>
       <c r="AP3">
-        <v>12.863248952298919</v>
+        <v>12.863248865222458</v>
       </c>
       <c r="AQ3">
-        <v>23.050353548662923</v>
+        <v>23.050353479669162</v>
       </c>
       <c r="AR3">
-        <v>45.949863728343367</v>
+        <v>45.949863716262094</v>
       </c>
       <c r="AS3">
-        <v>38.435740563518507</v>
+        <v>38.435740410917759</v>
       </c>
       <c r="AT3">
-        <v>29.444447918461432</v>
+        <v>29.444447807320568</v>
       </c>
       <c r="AU3">
-        <v>22.128941358017951</v>
+        <v>22.128941269867049</v>
       </c>
       <c r="AV3">
-        <v>20.582371753111424</v>
+        <v>20.582371542967369</v>
       </c>
       <c r="AW3">
-        <v>20.097790000094658</v>
+        <v>20.09778986663316</v>
       </c>
       <c r="AX3">
-        <v>18.658829024646806</v>
+        <v>18.658828929542945</v>
       </c>
       <c r="AY3">
-        <v>46.673065850985992</v>
+        <v>46.673065831494043</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.3381963809133719</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>14.990279955092589</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>27.308358682440705</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>42.619735185106805</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>22.49880970377523</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.671195574381505</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>17.259534748381462</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.193996676572553</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>24.495680769084775</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.3246488628938486</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.6920037790954909</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-5.7030242650881382</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.205051407740811</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.544664373085713</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>31.510538121095749</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.6499989602865188</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-6.5711422825917634</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>32.876565864289482</v>
+        <v>20.404655777853076</v>
       </c>
       <c r="T2">
         <v>37.351982516399147</v>
@@ -588,55 +477,55 @@
         <v>20.090222413044845</v>
       </c>
       <c r="AA2">
-        <v>41.93000890629974</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>31.921598372857989</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.6339706771510807</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>53.87187754542505</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>23.612574195138279</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>27.086469600587193</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>35.432561989162366</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>31.242715382045212</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>28.626961887576918</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.809717847466441</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>28.992039103434951</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.3091786758891373</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>30.2044515876383</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>30.086352833314763</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>52.615984524195447</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>29.019682235588018</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>4.3488050686296615</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>38.964153065989152</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.611998503666292</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>17.029013693383106</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>33.211305527017551</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>31.763702265668055</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.555523698334028</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>24.886087262296051</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.3209136097035401</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.4438014378130424</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>30.09960577276637</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>57.656845490474105</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>36.026052418847705</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.769853113282295</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>18.257473325937074</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-18.760759082241936</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>31.628435601881279</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.380520831675495</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.0937642453683907</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>28.777202116665141</v>
@@ -743,55 +629,55 @@
         <v>22.566983633200689</v>
       </c>
       <c r="AA3">
-        <v>44.529134558007669</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>35.997071091440972</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>49.314760947265292</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>50.328587556089722</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>44.518701028922976</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>27.884603917790905</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>20.74890491386358</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>13.494637926254166</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>74.510829908556957</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>54.359314635070277</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>39.16053147933966</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>20.878551938507748</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>25.278493384463228</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-8.6757566544518347</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>50.986740328402668</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.863248865222458</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>23.050353479669162</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>45.949863716262094</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>9.3381963518799207</v>
-      </c>
       <c r="C2">
-        <v>10.763002195689632</v>
-      </c>
-      <c r="D2">
-        <v>27.308358765736131</v>
-      </c>
-      <c r="E2">
-        <v>42.619735219833046</v>
+        <v>-6.5711422825917634</v>
       </c>
       <c r="F2">
         <v>22.498809737169374</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.611998537660291</v>
+        <v>-7.7900079309787529</v>
       </c>
       <c r="C3">
-        <v>17.029013720008486</v>
+        <v>4.0937642453683907</v>
       </c>
       <c r="D3">
-        <v>33.211305581558634</v>
+        <v>-6.4305823250474115</v>
       </c>
       <c r="E3">
-        <v>31.763702265122667</v>
+        <v>25.643932419873284</v>
       </c>
       <c r="F3">
         <v>15.555523769002241</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.3381963518799207</v>
-      </c>
-      <c r="C2">
-        <v>10.763002195689632</v>
+        <v>21.45912128837421</v>
       </c>
       <c r="D2">
-        <v>27.308358765736131</v>
-      </c>
-      <c r="E2">
-        <v>42.619735219833046</v>
+        <v>30.2044515876383</v>
       </c>
       <c r="F2">
         <v>22.498809737169374</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.611998537660291</v>
+        <v>18.257473325937074</v>
       </c>
       <c r="C3">
-        <v>17.029013720008486</v>
+        <v>-7.7900079309787529</v>
       </c>
       <c r="D3">
-        <v>33.211305581558634</v>
+        <v>25.278493384463228</v>
       </c>
       <c r="E3">
-        <v>43.249258376196053</v>
+        <v>-6.4305823250474115</v>
       </c>
       <c r="F3">
         <v>15.555523769002241</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.3381963809133719</v>
+      </c>
+      <c r="C2">
+        <v>10.763002169992877</v>
+      </c>
+      <c r="D2">
+        <v>27.308358682440705</v>
+      </c>
+      <c r="E2">
+        <v>42.619735185106805</v>
+      </c>
+      <c r="F2">
+        <v>22.49880970377523</v>
+      </c>
+      <c r="G2">
+        <v>16.691200161950192</v>
+      </c>
+      <c r="H2">
+        <v>17.259534748381462</v>
+      </c>
+      <c r="I2">
+        <v>29.364397313967384</v>
+      </c>
+      <c r="J2">
+        <v>24.495680769084775</v>
+      </c>
+      <c r="K2">
+        <v>8.3246488628938486</v>
+      </c>
+      <c r="L2">
+        <v>7.855901827217485</v>
+      </c>
+      <c r="M2">
+        <v>3.6808165066107552</v>
+      </c>
+      <c r="N2">
         <v>21.45912128837421</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>34.598865105632584</v>
+      </c>
+      <c r="Q2">
+        <v>2.6499989602865188</v>
+      </c>
+      <c r="R2">
+        <v>-6.5711422825917634</v>
+      </c>
+      <c r="T2">
+        <v>30.549340801466784</v>
+      </c>
+      <c r="U2">
+        <v>3.5306828551629601</v>
+      </c>
+      <c r="V2">
+        <v>23.676280450283997</v>
+      </c>
+      <c r="W2">
+        <v>-9.9482906253736267</v>
+      </c>
+      <c r="X2">
+        <v>6.8083215080733828</v>
+      </c>
+      <c r="Y2">
+        <v>36.750444359274184</v>
+      </c>
+      <c r="Z2">
+        <v>20.090222413044845</v>
+      </c>
+      <c r="AA2">
+        <v>41.93000890629974</v>
+      </c>
+      <c r="AB2">
+        <v>31.921598372857989</v>
+      </c>
+      <c r="AC2">
+        <v>7.6339706771510807</v>
+      </c>
+      <c r="AD2">
+        <v>53.87187754542505</v>
+      </c>
+      <c r="AE2">
+        <v>23.612574195138279</v>
+      </c>
+      <c r="AF2">
+        <v>27.086469600587193</v>
+      </c>
+      <c r="AG2">
+        <v>35.432561989162366</v>
+      </c>
+      <c r="AH2">
+        <v>31.242715382045212</v>
+      </c>
+      <c r="AI2">
+        <v>28.626961887576918</v>
+      </c>
+      <c r="AJ2">
+        <v>20.809717847466441</v>
+      </c>
+      <c r="AK2">
+        <v>28.992039103434951</v>
+      </c>
+      <c r="AL2">
+        <v>1.3091786758891373</v>
+      </c>
+      <c r="AM2">
         <v>30.2044515876383</v>
       </c>
-      <c r="F2">
-        <v>22.498809737169374</v>
-      </c>
-      <c r="G2">
-        <v>16.691200163493196</v>
-      </c>
-      <c r="H2">
-        <v>17.259534790056108</v>
-      </c>
-      <c r="I2">
-        <v>29.364397290735276</v>
-      </c>
-      <c r="J2">
-        <v>24.495680839585397</v>
-      </c>
-      <c r="K2">
-        <v>8.3246488781497199</v>
-      </c>
-      <c r="L2">
-        <v>7.8559018851266096</v>
-      </c>
-      <c r="M2">
-        <v>3.6808164955038261</v>
-      </c>
-      <c r="N2">
-        <v>21.459121326732699</v>
-      </c>
-      <c r="P2">
-        <v>34.598865098396601</v>
-      </c>
-      <c r="Q2">
-        <v>2.6499989904167234</v>
-      </c>
-      <c r="R2">
-        <v>-6.5711422451309884</v>
-      </c>
-      <c r="T2">
-        <v>30.549340787515856</v>
-      </c>
-      <c r="U2">
-        <v>3.5306828923301476</v>
-      </c>
-      <c r="V2">
-        <v>23.676280521034077</v>
-      </c>
-      <c r="W2">
-        <v>-9.9482905400230752</v>
-      </c>
-      <c r="X2">
-        <v>6.8083215476592311</v>
-      </c>
-      <c r="Y2">
-        <v>36.750444411598323</v>
-      </c>
-      <c r="Z2">
-        <v>20.090222445006255</v>
-      </c>
-      <c r="AA2">
-        <v>41.930009179243697</v>
-      </c>
-      <c r="AB2">
-        <v>31.921598457864235</v>
-      </c>
-      <c r="AC2">
-        <v>7.633970757324783</v>
-      </c>
-      <c r="AD2">
-        <v>53.871877658998038</v>
-      </c>
-      <c r="AE2">
-        <v>23.612574208503805</v>
-      </c>
-      <c r="AF2">
-        <v>27.086469662219727</v>
-      </c>
-      <c r="AG2">
-        <v>35.432562163534449</v>
-      </c>
-      <c r="AH2">
-        <v>31.242715443915642</v>
-      </c>
-      <c r="AI2">
-        <v>28.626961976596228</v>
-      </c>
-      <c r="AJ2">
-        <v>20.809717925566517</v>
-      </c>
-      <c r="AK2">
-        <v>28.992039149229171</v>
-      </c>
-      <c r="AL2">
-        <v>1.3091787267478681</v>
-      </c>
-      <c r="AM2">
-        <v>30.204451646612977</v>
-      </c>
       <c r="AO2">
-        <v>52.615984659916215</v>
+        <v>52.615984524195447</v>
       </c>
       <c r="AP2">
-        <v>32.999712687450618</v>
+        <v>32.999712640447711</v>
       </c>
       <c r="AR2">
-        <v>38.964153076775624</v>
+        <v>38.964153065989152</v>
       </c>
       <c r="AS2">
-        <v>45.363929690994048</v>
+        <v>45.363929523540428</v>
       </c>
       <c r="AT2">
-        <v>17.300635178034124</v>
+        <v>17.300635131832674</v>
       </c>
       <c r="AU2">
-        <v>17.070963307886387</v>
+        <v>17.070963328097925</v>
       </c>
       <c r="AV2">
-        <v>26.393775755970033</v>
+        <v>26.39377552517476</v>
       </c>
       <c r="AW2">
-        <v>13.757287369238414</v>
+        <v>13.757287335009243</v>
       </c>
       <c r="AX2">
-        <v>38.257535201020708</v>
+        <v>38.257535123376336</v>
       </c>
       <c r="AY2">
-        <v>47.350192656084246</v>
+        <v>47.350192591922955</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.611998503666292</v>
+      </c>
+      <c r="C3">
+        <v>17.029013693383106</v>
+      </c>
+      <c r="D3">
+        <v>33.211305527017551</v>
+      </c>
+      <c r="E3">
+        <v>43.249258377275552</v>
+      </c>
+      <c r="F3">
+        <v>15.555523698334028</v>
+      </c>
+      <c r="G3">
+        <v>24.886087262296051</v>
+      </c>
+      <c r="H3">
+        <v>3.3209136097035401</v>
+      </c>
+      <c r="I3">
+        <v>7.4438014378130424</v>
+      </c>
+      <c r="J3">
+        <v>30.09960577276637</v>
+      </c>
+      <c r="K3">
+        <v>47.267255048570469</v>
+      </c>
+      <c r="L3">
+        <v>36.026052418847705</v>
+      </c>
+      <c r="M3">
+        <v>-1.4469731823507275</v>
+      </c>
+      <c r="N3">
         <v>18.257473325937074</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-7.7900079309787529</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>31.628435601881279</v>
+      </c>
+      <c r="Q3">
+        <v>14.380520831675495</v>
+      </c>
+      <c r="R3">
+        <v>4.0937642453683907</v>
+      </c>
+      <c r="S3">
+        <v>28.777202116665141</v>
+      </c>
+      <c r="T3">
+        <v>34.906484286994889</v>
+      </c>
+      <c r="U3">
+        <v>19.200917564901996</v>
+      </c>
+      <c r="V3">
+        <v>27.838286561253295</v>
+      </c>
+      <c r="W3">
+        <v>-0.14292750746262131</v>
+      </c>
+      <c r="X3">
+        <v>-2.2515435234437984</v>
+      </c>
+      <c r="Y3">
+        <v>38.872029529452917</v>
+      </c>
+      <c r="Z3">
+        <v>22.566983633200689</v>
+      </c>
+      <c r="AA3">
+        <v>44.529134558007669</v>
+      </c>
+      <c r="AB3">
+        <v>35.997071091440972</v>
+      </c>
+      <c r="AC3">
+        <v>49.314760947265292</v>
+      </c>
+      <c r="AD3">
+        <v>50.328587556089722</v>
+      </c>
+      <c r="AE3">
+        <v>44.518701028922976</v>
+      </c>
+      <c r="AF3">
+        <v>27.884603917790905</v>
+      </c>
+      <c r="AG3">
+        <v>20.74890491386358</v>
+      </c>
+      <c r="AH3">
+        <v>13.494637926254166</v>
+      </c>
+      <c r="AI3">
+        <v>34.844365733646733</v>
+      </c>
+      <c r="AJ3">
+        <v>54.359314635070277</v>
+      </c>
+      <c r="AK3">
+        <v>39.16053147933966</v>
+      </c>
+      <c r="AL3">
+        <v>20.878551938507748</v>
+      </c>
+      <c r="AM3">
         <v>25.278493384463228</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-6.4305823250474115</v>
       </c>
-      <c r="F3">
-        <v>15.555523769002241</v>
-      </c>
-      <c r="G3">
-        <v>24.88608729552092</v>
-      </c>
-      <c r="H3">
-        <v>3.3209136404854949</v>
-      </c>
-      <c r="I3">
-        <v>7.4438014560283676</v>
-      </c>
-      <c r="J3">
-        <v>30.099605847267814</v>
-      </c>
-      <c r="K3">
-        <v>47.267255112159717</v>
-      </c>
-      <c r="L3">
-        <v>36.026052484666565</v>
-      </c>
-      <c r="M3">
-        <v>-1.4469245795553192</v>
-      </c>
-      <c r="N3">
-        <v>18.257473358907813</v>
-      </c>
-      <c r="O3">
-        <v>-7.790007877714598</v>
-      </c>
-      <c r="P3">
-        <v>31.628435662266551</v>
-      </c>
-      <c r="Q3">
-        <v>14.380520873798822</v>
-      </c>
-      <c r="R3">
-        <v>4.093764334352076</v>
-      </c>
-      <c r="S3">
-        <v>28.777202121623603</v>
-      </c>
-      <c r="T3">
-        <v>34.906484326396594</v>
-      </c>
-      <c r="U3">
-        <v>19.200917583013073</v>
-      </c>
-      <c r="V3">
-        <v>27.838286575492173</v>
-      </c>
-      <c r="W3">
-        <v>-0.14292743509423261</v>
-      </c>
-      <c r="X3">
-        <v>-2.2515434910066863</v>
-      </c>
-      <c r="Y3">
-        <v>38.872029592916249</v>
-      </c>
-      <c r="Z3">
-        <v>22.566983661411317</v>
-      </c>
-      <c r="AA3">
-        <v>44.529134514958535</v>
-      </c>
-      <c r="AB3">
-        <v>35.997071157869648</v>
-      </c>
-      <c r="AC3">
-        <v>49.314760954602768</v>
-      </c>
-      <c r="AD3">
-        <v>50.328587669867176</v>
-      </c>
-      <c r="AE3">
-        <v>44.518701075416992</v>
-      </c>
-      <c r="AF3">
-        <v>27.884603976717521</v>
-      </c>
-      <c r="AG3">
-        <v>20.748904921400836</v>
-      </c>
-      <c r="AH3">
-        <v>13.494638019849855</v>
-      </c>
-      <c r="AI3">
-        <v>34.84436585986154</v>
-      </c>
-      <c r="AJ3">
-        <v>54.359314702592378</v>
-      </c>
-      <c r="AK3">
-        <v>39.160531518408284</v>
-      </c>
-      <c r="AL3">
-        <v>20.878551978709385</v>
-      </c>
-      <c r="AM3">
-        <v>25.278493521569679</v>
-      </c>
-      <c r="AN3">
-        <v>-6.4305822325806048</v>
-      </c>
       <c r="AO3">
-        <v>50.986740392927075</v>
+        <v>50.986740328402668</v>
       </c>
       <c r="AP3">
-        <v>12.863248952298919</v>
+        <v>12.863248865222458</v>
       </c>
       <c r="AQ3">
-        <v>25.643932438439741</v>
+        <v>25.643932419873284</v>
       </c>
       <c r="AR3">
-        <v>45.949863728343367</v>
+        <v>45.949863716262094</v>
       </c>
       <c r="AS3">
-        <v>38.435740563518507</v>
+        <v>38.435740410917759</v>
       </c>
       <c r="AT3">
-        <v>29.444447918461432</v>
+        <v>29.444447807320568</v>
       </c>
       <c r="AU3">
-        <v>25.266649865632377</v>
+        <v>25.26664983879165</v>
       </c>
       <c r="AV3">
-        <v>20.582371753111424</v>
+        <v>20.582371542967369</v>
       </c>
       <c r="AW3">
-        <v>20.097790000094658</v>
+        <v>20.09778986663316</v>
       </c>
       <c r="AX3">
-        <v>18.658829024646806</v>
+        <v>18.658828929542945</v>
       </c>
       <c r="AY3">
-        <v>46.673065850985992</v>
+        <v>46.673065831494043</v>
       </c>
     </row>
   </sheetData>
